--- a/data/trans_orig/Q47-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q47-Estudios-trans_orig.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>169,15</t>
+          <t>169,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>158,95</t>
+          <t>158,96</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>163,06</t>
+          <t>163,23</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>168,59; 169,78</t>
+          <t>168,66; 169,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>158,17; 159,39</t>
+          <t>158,31; 159,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>162,42; 163,54</t>
+          <t>162,67; 163,73</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>174,19</t>
+          <t>174,98</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>162,16</t>
+          <t>161,56</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>168,08</t>
+          <t>168,41</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>173,79; 174,83</t>
+          <t>174,01; 177,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>160,97; 162,65</t>
+          <t>159,67; 162,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>166,92; 168,63</t>
+          <t>166,74; 170,37</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>175,82</t>
+          <t>175,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>163,88</t>
+          <t>163,86</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>169,71</t>
+          <t>169,84</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>175,32; 176,4</t>
+          <t>175,35; 176,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>163,48; 164,28</t>
+          <t>163,43; 164,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>169,28; 170,16</t>
+          <t>169,41; 170,37</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>173,73</t>
+          <t>174,31</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>161,81</t>
+          <t>161,47</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>167,47</t>
+          <t>167,79</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>173,43; 174,16</t>
+          <t>173,63; 176,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>160,94; 162,13</t>
+          <t>160,0; 162,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>166,76; 167,87</t>
+          <t>166,71; 169,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q47-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q47-Estudios-trans_orig.xlsx
@@ -724,27 +724,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>169,22; 170,08</t>
+          <t>169,24; 170,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>168,89; 169,9</t>
+          <t>168,91; 169,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>169,69; 170,73</t>
+          <t>169,63; 170,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>168,66; 169,88</t>
+          <t>168,66; 169,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>157,98; 158,7</t>
+          <t>157,95; 158,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,32 +754,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>158,39; 159,26</t>
+          <t>158,37; 159,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>158,31; 159,38</t>
+          <t>158,32; 159,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>162,9; 163,63</t>
+          <t>162,92; 163,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>162,81; 163,61</t>
+          <t>162,85; 163,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>163,4; 164,31</t>
+          <t>163,39; 164,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>162,67; 163,73</t>
+          <t>162,64; 163,63</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>174,2; 174,87</t>
+          <t>174,22; 174,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,17 +874,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>174,09; 174,79</t>
+          <t>174,12; 174,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>174,01; 177,42</t>
+          <t>174,02; 177,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>161,89; 162,5</t>
+          <t>161,88; 162,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,32 +894,32 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>161,87; 162,48</t>
+          <t>161,88; 162,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>159,67; 162,52</t>
+          <t>159,63; 162,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>168,23; 168,91</t>
+          <t>168,25; 168,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>168,11; 168,73</t>
+          <t>168,11; 168,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>168,16; 168,75</t>
+          <t>168,12; 168,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>166,74; 170,37</t>
+          <t>166,61; 170,56</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>174,91; 176,13</t>
+          <t>174,91; 176,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>175,63; 176,97</t>
+          <t>175,64; 176,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>175,76; 177,03</t>
+          <t>175,76; 177,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>175,35; 176,53</t>
+          <t>175,36; 176,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>162,99; 164,17</t>
+          <t>163,07; 164,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>163,45; 164,75</t>
+          <t>163,46; 164,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>162,64; 163,74</t>
+          <t>162,6; 163,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>163,43; 164,23</t>
+          <t>163,43; 164,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>169,4; 170,58</t>
+          <t>169,41; 170,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>169,69; 170,97</t>
+          <t>169,72; 170,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>169,21; 170,35</t>
+          <t>169,18; 170,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>169,41; 170,37</t>
+          <t>169,34; 170,37</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>172,91; 173,42</t>
+          <t>172,92; 173,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,52 +1154,52 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>173,57; 174,11</t>
+          <t>173,57; 174,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>173,63; 176,28</t>
+          <t>173,62; 176,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>160,66; 161,13</t>
+          <t>160,65; 161,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>160,78; 161,27</t>
+          <t>160,8; 161,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>161,19; 161,65</t>
+          <t>161,2; 161,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>160,0; 162,05</t>
+          <t>160,19; 162,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>166,73; 167,16</t>
+          <t>166,72; 167,18</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>166,77; 167,24</t>
+          <t>166,77; 167,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>167,32; 167,78</t>
+          <t>167,29; 167,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>166,71; 169,4</t>
+          <t>166,82; 169,33</t>
         </is>
       </c>
     </row>
